--- a/test-resources/data/DefaultTestSuite.xlsx
+++ b/test-resources/data/DefaultTestSuite.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -62,6 +62,21 @@
   </si>
   <si>
     <t>OpenUrl_url-2</t>
+  </si>
+  <si>
+    <t>Set_username_phone-1</t>
+  </si>
+  <si>
+    <t>Set_Password_Password-1</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Sou@1998@vik</t>
   </si>
 </sst>
 </file>
@@ -413,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -424,7 +439,7 @@
     <col min="1" max="1" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,7 +447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -443,12 +458,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -459,6 +474,12 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -469,31 +490,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>9123899870</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -501,12 +537,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -514,6 +550,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
